--- a/biology/Histoire de la zoologie et de la botanique/Ludwig_Redtenbacher/Ludwig_Redtenbacher.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludwig_Redtenbacher/Ludwig_Redtenbacher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Redtenbacher est un médecin et un entomologiste autrichien, né le 10 juin 1814 à Kirchdorf an der Krems et mort le 8 février 1876 à Vienne.  
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Redtenbacher est le premier professeur d’université à Prague et devient, en 1860, directeur du muséum de Vienne. Bien qu’il travaille principalement sur les coléoptères autrichiens, sa classification, ou analytischen en allemand, est largement adoptée. C’est lui qui signe le volume consacré aux coléoptères dans Reise der österreichischen Fregatte Novara um die Erde in den Jahren 1857, 1858, 1859 unter den befehlen des Commodore B. von Wüllerstorf-Urbair (1868), rapport scientifique faisant suite à l’expédition du SMS Novara qui fait une circumnavigation de 1857 à 1859. Il décrit également les spécimens rassemblés par Ida Laura Pfeiffer (1797-1858).
 Parmi ses œuvres, il faut citer Fauna Austriaca. Die Käfer, nach der analytischen Methode bearbeitet (1849, deuxième édition revue et augmentée en 1858).
